--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_T55.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_T55.xlsx
@@ -539,40 +539,43 @@
       <c r="J2">
         <v>-0.2074094792833136</v>
       </c>
+      <c r="K2">
+        <v>-0.1117343352833136</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.052939957446597E-10</v>
+        <v>7.469150331105293</v>
       </c>
       <c r="C3">
-        <v>7.469150331105293</v>
+        <v>-10.70211131889471</v>
       </c>
       <c r="D3">
-        <v>-10.70211131889471</v>
+        <v>-2.562440318894706</v>
       </c>
       <c r="E3">
-        <v>-2.562440318894706</v>
+        <v>-0.4148694508947059</v>
       </c>
       <c r="F3">
-        <v>-0.4148694508947059</v>
+        <v>-3.854899318894706</v>
       </c>
       <c r="G3">
-        <v>-3.854899318894706</v>
+        <v>-3.916073318894706</v>
       </c>
       <c r="H3">
-        <v>-3.916073318894706</v>
+        <v>-1.874617318894706</v>
       </c>
       <c r="I3">
-        <v>-1.874617318894706</v>
+        <v>-2.457212318894706</v>
       </c>
       <c r="J3">
-        <v>-2.457212318894706</v>
+        <v>-2.361537174894706</v>
       </c>
       <c r="K3">
-        <v>-2.361537174894706</v>
+        <v>-2.621956318894706</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -580,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2.480007310623478E-10</v>
+        <v>-18.171261649752</v>
       </c>
       <c r="C4">
-        <v>-18.171261649752</v>
+        <v>-10.031590649752</v>
       </c>
       <c r="D4">
-        <v>-10.031590649752</v>
+        <v>-7.884019781751999</v>
       </c>
       <c r="E4">
-        <v>-7.884019781751999</v>
+        <v>-11.324049649752</v>
       </c>
       <c r="F4">
-        <v>-11.324049649752</v>
+        <v>-11.385223649752</v>
       </c>
       <c r="G4">
-        <v>-11.385223649752</v>
+        <v>-9.343767649751999</v>
       </c>
       <c r="H4">
-        <v>-9.343767649751999</v>
+        <v>-9.926362649751999</v>
       </c>
       <c r="I4">
-        <v>-9.926362649751999</v>
+        <v>-9.830687505752</v>
       </c>
       <c r="J4">
-        <v>-9.830687505752</v>
+        <v>-10.091106649752</v>
       </c>
       <c r="K4">
-        <v>-10.091106649752</v>
+        <v>-9.255651649751998</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -615,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1.503854694107076E-07</v>
+        <v>8.139671150385469</v>
       </c>
       <c r="C5">
-        <v>8.139671150385469</v>
+        <v>10.28724201838547</v>
       </c>
       <c r="D5">
-        <v>10.28724201838547</v>
+        <v>6.84721215038547</v>
       </c>
       <c r="E5">
-        <v>6.84721215038547</v>
+        <v>6.78603815038547</v>
       </c>
       <c r="F5">
-        <v>6.78603815038547</v>
+        <v>8.827494150385469</v>
       </c>
       <c r="G5">
-        <v>8.827494150385469</v>
+        <v>8.24489915038547</v>
       </c>
       <c r="H5">
-        <v>8.24489915038547</v>
+        <v>8.340574294385469</v>
       </c>
       <c r="I5">
-        <v>8.340574294385469</v>
+        <v>8.080155150385469</v>
       </c>
       <c r="J5">
-        <v>8.080155150385469</v>
+        <v>8.91561015038547</v>
       </c>
       <c r="K5">
-        <v>8.91561015038547</v>
+        <v>8.815537197385471</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -650,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-3.965936795080616E-07</v>
+        <v>2.14757047140632</v>
       </c>
       <c r="C6">
-        <v>2.14757047140632</v>
+        <v>-1.292459396593679</v>
       </c>
       <c r="D6">
-        <v>-1.292459396593679</v>
+        <v>-1.35363339659368</v>
       </c>
       <c r="E6">
-        <v>-1.35363339659368</v>
+        <v>0.6878226034063205</v>
       </c>
       <c r="F6">
-        <v>0.6878226034063205</v>
+        <v>0.1052276034063205</v>
       </c>
       <c r="G6">
-        <v>0.1052276034063205</v>
+        <v>0.2009027474063205</v>
       </c>
       <c r="H6">
-        <v>0.2009027474063205</v>
+        <v>-0.05951639659367947</v>
       </c>
       <c r="I6">
-        <v>-0.05951639659367947</v>
+        <v>0.7759386034063205</v>
       </c>
       <c r="J6">
-        <v>0.7759386034063205</v>
+        <v>0.6758656504063205</v>
       </c>
       <c r="K6">
-        <v>0.6758656504063205</v>
+        <v>0.3220726034063205</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -685,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-3.930720193778825E-10</v>
+        <v>-3.440029868393072</v>
       </c>
       <c r="C7">
-        <v>-3.440029868393072</v>
+        <v>-3.501203868393072</v>
       </c>
       <c r="D7">
-        <v>-3.501203868393072</v>
+        <v>-1.459747868393072</v>
       </c>
       <c r="E7">
-        <v>-1.459747868393072</v>
+        <v>-2.042342868393072</v>
       </c>
       <c r="F7">
-        <v>-2.042342868393072</v>
+        <v>-1.946667724393072</v>
       </c>
       <c r="G7">
-        <v>-1.946667724393072</v>
+        <v>-2.207086868393072</v>
       </c>
       <c r="H7">
-        <v>-2.207086868393072</v>
+        <v>-1.371631868393072</v>
       </c>
       <c r="I7">
-        <v>-1.371631868393072</v>
+        <v>-1.471704821393072</v>
       </c>
       <c r="J7">
-        <v>-1.471704821393072</v>
+        <v>-1.825497868393072</v>
       </c>
       <c r="K7">
-        <v>-1.825497868393072</v>
+        <v>-1.677319868393072</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -720,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1.181302580199883E-07</v>
+        <v>-0.06117388186974204</v>
       </c>
       <c r="C8">
-        <v>-0.06117388186974204</v>
+        <v>1.980282118130258</v>
       </c>
       <c r="D8">
-        <v>1.980282118130258</v>
+        <v>1.397687118130258</v>
       </c>
       <c r="E8">
-        <v>1.397687118130258</v>
+        <v>1.493362262130258</v>
       </c>
       <c r="F8">
-        <v>1.493362262130258</v>
+        <v>1.232943118130258</v>
       </c>
       <c r="G8">
-        <v>1.232943118130258</v>
+        <v>2.068398118130258</v>
       </c>
       <c r="H8">
-        <v>2.068398118130258</v>
+        <v>1.968325165130258</v>
       </c>
       <c r="I8">
-        <v>1.968325165130258</v>
+        <v>1.614532118130258</v>
       </c>
       <c r="J8">
-        <v>1.614532118130258</v>
+        <v>1.762710118130258</v>
       </c>
       <c r="K8">
-        <v>1.762710118130258</v>
+        <v>1.920156118130258</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2.965444589886346E-07</v>
+        <v>2.041456296544459</v>
       </c>
       <c r="C9">
-        <v>2.041456296544459</v>
+        <v>1.458861296544459</v>
       </c>
       <c r="D9">
-        <v>1.458861296544459</v>
+        <v>1.554536440544459</v>
       </c>
       <c r="E9">
-        <v>1.554536440544459</v>
+        <v>1.294117296544459</v>
       </c>
       <c r="F9">
-        <v>1.294117296544459</v>
+        <v>2.129572296544459</v>
       </c>
       <c r="G9">
-        <v>2.129572296544459</v>
+        <v>2.029499343544459</v>
       </c>
       <c r="H9">
-        <v>2.029499343544459</v>
+        <v>1.675706296544459</v>
       </c>
       <c r="I9">
-        <v>1.675706296544459</v>
+        <v>1.823884296544459</v>
       </c>
       <c r="J9">
-        <v>1.823884296544459</v>
+        <v>1.981330296544459</v>
       </c>
       <c r="K9">
-        <v>1.981330296544459</v>
+        <v>1.480667296544459</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3.593882045849206E-07</v>
+        <v>-0.5825946406117954</v>
       </c>
       <c r="C10">
-        <v>-0.5825946406117954</v>
+        <v>-0.4869194966117955</v>
       </c>
       <c r="D10">
-        <v>-0.4869194966117955</v>
+        <v>-0.7473386406117954</v>
       </c>
       <c r="E10">
-        <v>-0.7473386406117954</v>
+        <v>0.08811635938820461</v>
       </c>
       <c r="F10">
-        <v>0.08811635938820461</v>
+        <v>-0.01195659361179541</v>
       </c>
       <c r="G10">
-        <v>-0.01195659361179541</v>
+        <v>-0.3657496406117954</v>
       </c>
       <c r="H10">
-        <v>-0.3657496406117954</v>
+        <v>-0.2175716406117954</v>
       </c>
       <c r="I10">
-        <v>-0.2175716406117954</v>
+        <v>-0.06012564061179543</v>
       </c>
       <c r="J10">
-        <v>-0.06012564061179543</v>
+        <v>-0.5607886406117955</v>
       </c>
       <c r="K10">
-        <v>-0.5607886406117955</v>
+        <v>-0.2804276406117954</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -825,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1.035781544145298E-07</v>
+        <v>0.09567504042184558</v>
       </c>
       <c r="C11">
-        <v>0.09567504042184558</v>
+        <v>-0.1647441035781544</v>
       </c>
       <c r="D11">
-        <v>-0.1647441035781544</v>
+        <v>0.6707108964218456</v>
       </c>
       <c r="E11">
-        <v>0.6707108964218456</v>
+        <v>0.5706379434218456</v>
       </c>
       <c r="F11">
-        <v>0.5706379434218456</v>
+        <v>0.2168448964218456</v>
       </c>
       <c r="G11">
-        <v>0.2168448964218456</v>
+        <v>0.3650228964218456</v>
       </c>
       <c r="H11">
-        <v>0.3650228964218456</v>
+        <v>0.5224688964218456</v>
       </c>
       <c r="I11">
-        <v>0.5224688964218456</v>
+        <v>0.02180589642184558</v>
       </c>
       <c r="J11">
-        <v>0.02180589642184558</v>
+        <v>0.3021668964218456</v>
       </c>
       <c r="K11">
-        <v>0.3021668964218456</v>
+        <v>0.1301918964218456</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -860,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-3.87512216759589E-10</v>
+        <v>-0.2604191443875122</v>
       </c>
       <c r="C12">
-        <v>-0.2604191443875122</v>
+        <v>0.5750358556124878</v>
       </c>
       <c r="D12">
-        <v>0.5750358556124878</v>
+        <v>0.4749629026124878</v>
       </c>
       <c r="E12">
-        <v>0.4749629026124878</v>
+        <v>0.1211698556124878</v>
       </c>
       <c r="F12">
-        <v>0.1211698556124878</v>
+        <v>0.2693478556124878</v>
       </c>
       <c r="G12">
-        <v>0.2693478556124878</v>
+        <v>0.4267938556124878</v>
       </c>
       <c r="H12">
-        <v>0.4267938556124878</v>
+        <v>-0.07386914438751221</v>
       </c>
       <c r="I12">
-        <v>-0.07386914438751221</v>
+        <v>0.2064918556124878</v>
       </c>
       <c r="J12">
-        <v>0.2064918556124878</v>
+        <v>0.0345168556124878</v>
       </c>
       <c r="K12">
-        <v>0.0345168556124878</v>
+        <v>0.3403798556124878</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -895,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1.07388789361007E-07</v>
+        <v>0.8354548926112106</v>
       </c>
       <c r="C13">
-        <v>0.8354548926112106</v>
+        <v>0.7353819396112107</v>
       </c>
       <c r="D13">
-        <v>0.7353819396112107</v>
+        <v>0.3815888926112106</v>
       </c>
       <c r="E13">
-        <v>0.3815888926112106</v>
+        <v>0.5297668926112107</v>
       </c>
       <c r="F13">
-        <v>0.5297668926112107</v>
+        <v>0.6872128926112107</v>
       </c>
       <c r="G13">
-        <v>0.6872128926112107</v>
+        <v>0.1865498926112106</v>
       </c>
       <c r="H13">
-        <v>0.1865498926112106</v>
+        <v>0.4669108926112106</v>
       </c>
       <c r="I13">
-        <v>0.4669108926112106</v>
+        <v>0.2949358926112106</v>
       </c>
       <c r="J13">
-        <v>0.2949358926112106</v>
+        <v>0.6007988926112107</v>
       </c>
       <c r="K13">
-        <v>0.6007988926112107</v>
+        <v>-0.01153110738878937</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -930,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1.035472805832605E-07</v>
+        <v>-0.1000730565472806</v>
       </c>
       <c r="C14">
-        <v>-0.1000730565472806</v>
+        <v>-0.4538661035472806</v>
       </c>
       <c r="D14">
-        <v>-0.4538661035472806</v>
+        <v>-0.3056881035472806</v>
       </c>
       <c r="E14">
-        <v>-0.3056881035472806</v>
+        <v>-0.1482421035472806</v>
       </c>
       <c r="F14">
-        <v>-0.1482421035472806</v>
+        <v>-0.6489051035472806</v>
       </c>
       <c r="G14">
-        <v>-0.6489051035472806</v>
+        <v>-0.3685441035472806</v>
       </c>
       <c r="H14">
-        <v>-0.3685441035472806</v>
+        <v>-0.5405191035472806</v>
       </c>
       <c r="I14">
-        <v>-0.5405191035472806</v>
+        <v>-0.2346561035472806</v>
       </c>
       <c r="J14">
-        <v>-0.2346561035472806</v>
+        <v>-0.8469861035472805</v>
       </c>
       <c r="K14">
-        <v>-0.8469861035472805</v>
+        <v>-0.1586151035472806</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -965,33 +968,30 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>6.303355340908645E-06</v>
+        <v>-0.3537867436446591</v>
       </c>
       <c r="C15">
-        <v>-0.3537867436446591</v>
+        <v>-0.2056087436446591</v>
       </c>
       <c r="D15">
-        <v>-0.2056087436446591</v>
+        <v>-0.04816274364465911</v>
       </c>
       <c r="E15">
-        <v>-0.04816274364465911</v>
+        <v>-0.5488257436446591</v>
       </c>
       <c r="F15">
-        <v>-0.5488257436446591</v>
+        <v>-0.2684647436446591</v>
       </c>
       <c r="G15">
-        <v>-0.2684647436446591</v>
+        <v>-0.4404397436446591</v>
       </c>
       <c r="H15">
-        <v>-0.4404397436446591</v>
+        <v>-0.1345767436446591</v>
       </c>
       <c r="I15">
-        <v>-0.1345767436446591</v>
+        <v>-0.746906743644659</v>
       </c>
       <c r="J15">
-        <v>-0.746906743644659</v>
-      </c>
-      <c r="K15">
         <v>-0.05853574364465908</v>
       </c>
     </row>
@@ -1000,179 +1000,152 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-2.375649628613696E-07</v>
+        <v>0.1481777624350372</v>
       </c>
       <c r="C16">
-        <v>0.1481777624350372</v>
+        <v>0.3056237624350371</v>
       </c>
       <c r="D16">
-        <v>0.3056237624350371</v>
+        <v>-0.1950392375649629</v>
       </c>
       <c r="E16">
-        <v>-0.1950392375649629</v>
+        <v>0.08532176243503714</v>
       </c>
       <c r="F16">
-        <v>0.08532176243503714</v>
+        <v>-0.08665323756496286</v>
       </c>
       <c r="G16">
-        <v>-0.08665323756496286</v>
+        <v>0.2192097624350371</v>
       </c>
       <c r="H16">
-        <v>0.2192097624350371</v>
+        <v>-0.3931202375649628</v>
       </c>
       <c r="I16">
-        <v>-0.3931202375649628</v>
-      </c>
-      <c r="J16">
         <v>0.2952507624350372</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>3.720025918141356E-07</v>
+        <v>0.1574463720025918</v>
       </c>
       <c r="C17">
-        <v>0.1574463720025918</v>
+        <v>-0.3432166279974082</v>
       </c>
       <c r="D17">
-        <v>-0.3432166279974082</v>
+        <v>-0.06285562799740819</v>
       </c>
       <c r="E17">
-        <v>-0.06285562799740819</v>
+        <v>-0.2348306279974082</v>
       </c>
       <c r="F17">
-        <v>-0.2348306279974082</v>
+        <v>0.0710323720025918</v>
       </c>
       <c r="G17">
-        <v>0.0710323720025918</v>
+        <v>-0.5412976279974082</v>
       </c>
       <c r="H17">
-        <v>-0.5412976279974082</v>
-      </c>
-      <c r="I17">
         <v>0.1470733720025918</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>3.829984367986761E-07</v>
+        <v>-0.5006626170015632</v>
       </c>
       <c r="C18">
-        <v>-0.5006626170015632</v>
+        <v>-0.2203016170015632</v>
       </c>
       <c r="D18">
-        <v>-0.2203016170015632</v>
+        <v>-0.3922766170015632</v>
       </c>
       <c r="E18">
-        <v>-0.3922766170015632</v>
+        <v>-0.08641361700156319</v>
       </c>
       <c r="F18">
-        <v>-0.08641361700156319</v>
+        <v>-0.6987436170015632</v>
       </c>
       <c r="G18">
-        <v>-0.6987436170015632</v>
-      </c>
-      <c r="H18">
         <v>-0.01037261700156317</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-3.160475492397508E-06</v>
+        <v>0.2803578395245076</v>
       </c>
       <c r="C19">
-        <v>0.2803578395245076</v>
+        <v>0.1083828395245076</v>
       </c>
       <c r="D19">
-        <v>0.1083828395245076</v>
+        <v>0.4142458395245076</v>
       </c>
       <c r="E19">
-        <v>0.4142458395245076</v>
+        <v>-0.1980841604754924</v>
       </c>
       <c r="F19">
-        <v>-0.1980841604754924</v>
-      </c>
-      <c r="G19">
         <v>0.4902868395245076</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-4.101096154340844E-08</v>
+        <v>-0.1719750410109616</v>
       </c>
       <c r="C20">
-        <v>-0.1719750410109616</v>
+        <v>0.1338879589890384</v>
       </c>
       <c r="D20">
-        <v>0.1338879589890384</v>
+        <v>-0.4784420410109615</v>
       </c>
       <c r="E20">
-        <v>-0.4784420410109615</v>
-      </c>
-      <c r="F20">
         <v>0.2099289589890385</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1.831659499074156E-07</v>
+        <v>0.3058628168340501</v>
       </c>
       <c r="C21">
-        <v>0.3058628168340501</v>
+        <v>-0.3064671831659499</v>
       </c>
       <c r="D21">
-        <v>-0.3064671831659499</v>
-      </c>
-      <c r="E21">
         <v>0.3819038168340501</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>2.770877186031306E-07</v>
+        <v>-0.6123297229122814</v>
       </c>
       <c r="C22">
-        <v>-0.6123297229122814</v>
-      </c>
-      <c r="D22">
         <v>0.07604127708771863</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>2.29775004800814E-07</v>
-      </c>
-      <c r="C23">
         <v>0.6883712297750049</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B24">
-        <v>-1.554241066958895E-07</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_T55.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_9_matched_errors_T55.xlsx
@@ -539,43 +539,40 @@
       <c r="J2">
         <v>-0.2074094792833136</v>
       </c>
-      <c r="K2">
-        <v>-0.1117343352833136</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
+        <v>1.052939957446597E-10</v>
+      </c>
+      <c r="C3">
         <v>7.469150331105293</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-10.70211131889471</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-2.562440318894706</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.4148694508947059</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-3.854899318894706</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-3.916073318894706</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-1.874617318894706</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-2.457212318894706</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-2.361537174894706</v>
-      </c>
-      <c r="K3">
-        <v>-2.621956318894706</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +580,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>2.480007310623478E-10</v>
+      </c>
+      <c r="C4">
         <v>-18.171261649752</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-10.031590649752</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-7.884019781751999</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-11.324049649752</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-11.385223649752</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-9.343767649751999</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-9.926362649751999</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-9.830687505752</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-10.091106649752</v>
-      </c>
-      <c r="K4">
-        <v>-9.255651649751998</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +615,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>1.503854694107076E-07</v>
+      </c>
+      <c r="C5">
         <v>8.139671150385469</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>10.28724201838547</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>6.84721215038547</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>6.78603815038547</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8.827494150385469</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>8.24489915038547</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8.340574294385469</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>8.080155150385469</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>8.91561015038547</v>
-      </c>
-      <c r="K5">
-        <v>8.815537197385471</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +650,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>-3.965936795080616E-07</v>
+      </c>
+      <c r="C6">
         <v>2.14757047140632</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1.292459396593679</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-1.35363339659368</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.6878226034063205</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.1052276034063205</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.2009027474063205</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.05951639659367947</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.7759386034063205</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.6758656504063205</v>
-      </c>
-      <c r="K6">
-        <v>0.3220726034063205</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +685,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-3.930720193778825E-10</v>
+      </c>
+      <c r="C7">
         <v>-3.440029868393072</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-3.501203868393072</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-1.459747868393072</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-2.042342868393072</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-1.946667724393072</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-2.207086868393072</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-1.371631868393072</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-1.471704821393072</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-1.825497868393072</v>
-      </c>
-      <c r="K7">
-        <v>-1.677319868393072</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +720,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>1.181302580199883E-07</v>
+      </c>
+      <c r="C8">
         <v>-0.06117388186974204</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1.980282118130258</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.397687118130258</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.493362262130258</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.232943118130258</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2.068398118130258</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.968325165130258</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.614532118130258</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.762710118130258</v>
-      </c>
-      <c r="K8">
-        <v>1.920156118130258</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +755,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>2.965444589886346E-07</v>
+      </c>
+      <c r="C9">
         <v>2.041456296544459</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1.458861296544459</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.554536440544459</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.294117296544459</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.129572296544459</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.029499343544459</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.675706296544459</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.823884296544459</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1.981330296544459</v>
-      </c>
-      <c r="K9">
-        <v>1.480667296544459</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +790,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>3.593882045849206E-07</v>
+      </c>
+      <c r="C10">
         <v>-0.5825946406117954</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.4869194966117955</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.7473386406117954</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.08811635938820461</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.01195659361179541</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.3657496406117954</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.2175716406117954</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.06012564061179543</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.5607886406117955</v>
-      </c>
-      <c r="K10">
-        <v>-0.2804276406117954</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +825,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-1.035781544145298E-07</v>
+      </c>
+      <c r="C11">
         <v>0.09567504042184558</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.1647441035781544</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.6707108964218456</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.5706379434218456</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.2168448964218456</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.3650228964218456</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.5224688964218456</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.02180589642184558</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.3021668964218456</v>
-      </c>
-      <c r="K11">
-        <v>0.1301918964218456</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +860,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-3.87512216759589E-10</v>
+      </c>
+      <c r="C12">
         <v>-0.2604191443875122</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.5750358556124878</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.4749629026124878</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.1211698556124878</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.2693478556124878</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.4267938556124878</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.07386914438751221</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.2064918556124878</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.0345168556124878</v>
-      </c>
-      <c r="K12">
-        <v>0.3403798556124878</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +895,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-1.07388789361007E-07</v>
+      </c>
+      <c r="C13">
         <v>0.8354548926112106</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.7353819396112107</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.3815888926112106</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.5297668926112107</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.6872128926112107</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.1865498926112106</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.4669108926112106</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.2949358926112106</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.6007988926112107</v>
-      </c>
-      <c r="K13">
-        <v>-0.01153110738878937</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +930,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-1.035472805832605E-07</v>
+      </c>
+      <c r="C14">
         <v>-0.1000730565472806</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.4538661035472806</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.3056881035472806</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.1482421035472806</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.6489051035472806</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.3685441035472806</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.5405191035472806</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.2346561035472806</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.8469861035472805</v>
-      </c>
-      <c r="K14">
-        <v>-0.1586151035472806</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,30 +965,33 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>6.303355340908645E-06</v>
+      </c>
+      <c r="C15">
         <v>-0.3537867436446591</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.2056087436446591</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.04816274364465911</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.5488257436446591</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.2684647436446591</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.4404397436446591</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.1345767436446591</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.746906743644659</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-0.05853574364465908</v>
       </c>
     </row>
@@ -1000,152 +1000,179 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-2.375649628613696E-07</v>
+      </c>
+      <c r="C16">
         <v>0.1481777624350372</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.3056237624350371</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.1950392375649629</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.08532176243503714</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.08665323756496286</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.2192097624350371</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.3931202375649628</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.2952507624350372</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
+        <v>3.720025918141356E-07</v>
+      </c>
+      <c r="C17">
         <v>0.1574463720025918</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.3432166279974082</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.06285562799740819</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.2348306279974082</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.0710323720025918</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.5412976279974082</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.1470733720025918</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
+        <v>3.829984367986761E-07</v>
+      </c>
+      <c r="C18">
         <v>-0.5006626170015632</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.2203016170015632</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.3922766170015632</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.08641361700156319</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.6987436170015632</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.01037261700156317</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
+        <v>-3.160475492397508E-06</v>
+      </c>
+      <c r="C19">
         <v>0.2803578395245076</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.1083828395245076</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.4142458395245076</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.1980841604754924</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.4902868395245076</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-4.101096154340844E-08</v>
+      </c>
+      <c r="C20">
         <v>-0.1719750410109616</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.1338879589890384</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.4784420410109615</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.2099289589890385</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-1.831659499074156E-07</v>
+      </c>
+      <c r="C21">
         <v>0.3058628168340501</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.3064671831659499</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3819038168340501</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
+        <v>2.770877186031306E-07</v>
+      </c>
+      <c r="C22">
         <v>-0.6123297229122814</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.07604127708771863</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
+        <v>2.29775004800814E-07</v>
+      </c>
+      <c r="C23">
         <v>0.6883712297750049</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1.554241066958895E-07</v>
       </c>
     </row>
   </sheetData>
